--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19934.67454643807</v>
+        <v>-28105.91695864986</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33891203.61433117</v>
+        <v>33917475.15840615</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11201281.65349967</v>
+        <v>11023411.17494686</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3403853.405573506</v>
+        <v>3477500.35847392</v>
       </c>
     </row>
     <row r="11">
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>371.5724976088931</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>394.5277752416723</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>137.9685787855547</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.8720855447433</v>
+        <v>212.6698609890941</v>
       </c>
       <c r="U13" t="n">
         <v>275.6161358490523</v>
@@ -1593,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>117.8487050421526</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="F14" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>388.9512294221411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>34.84719357879</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>135.9028272103763</v>
       </c>
       <c r="U16" t="n">
         <v>275.6161358490523</v>
@@ -1827,13 +1827,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>412.6473898085254</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>411.082742428415</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>396.054118850051</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1937,10 +1937,10 @@
         <v>82.55</v>
       </c>
       <c r="G18" t="n">
-        <v>83.81976830925504</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>34.44698820166514</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>49.60563018141188</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
-        <v>126.0091317304331</v>
+        <v>124.8306395731037</v>
       </c>
       <c r="U18" t="n">
-        <v>174.5263742585036</v>
+        <v>174.5071388043578</v>
       </c>
       <c r="V18" t="n">
         <v>197.1263427586206</v>
@@ -2007,19 +2007,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>29.71289223936077</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>59.43288968047884</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>166.9151815679632</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>361.464905015728</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>125.6095068481066</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>17.75123914303021</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>176.1446634785937</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -2335,7 +2335,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>126.7338557192072</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2484,10 +2484,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>114.4902686554483</v>
       </c>
       <c r="G25" t="n">
         <v>163.0937685836068</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
@@ -2535,7 +2535,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>137.7390153623166</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>189.1994894238663</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>210.1418397505085</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>150.178494934493</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2730,10 +2730,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>102.4723721420031</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>319.8151589143686</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
@@ -2854,13 +2854,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>41.21687249364519</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2952,25 +2952,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>98.26917855572354</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>220.4559562666432</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>141.1318867446889</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>318.4962008704468</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3192,22 +3192,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>86.38976318987905</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>170.3034090720304</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>157.7641052519184</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
@@ -3328,13 +3328,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>98.7910943649067</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3426,25 +3426,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>63.62546569681869</v>
       </c>
       <c r="G37" t="n">
-        <v>49.34995949258617</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>65.45709821928079</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>149.6157531058527</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>49.34995949258661</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>11.45461388085811</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>244.9043102020997</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3808,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.1200820931828</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>44.55790309122072</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3912,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>59.43301941557514</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>321.9370827829815</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>166.6471019812791</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>124.4972752731874</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>49.34995949258617</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4197,10 +4197,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>878.2743088441118</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="C11" t="n">
-        <v>878.2743088441118</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D11" t="n">
-        <v>878.2743088441118</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E11" t="n">
-        <v>455.8645796963089</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F11" t="n">
         <v>33.45485054850599</v>
@@ -5038,16 +5038,16 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I11" t="n">
-        <v>83.7982877452424</v>
+        <v>83.79828774524201</v>
       </c>
       <c r="J11" t="n">
-        <v>195.5292216073329</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K11" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L11" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M11" t="n">
         <v>801.8833353847205</v>
@@ -5071,22 +5071,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T11" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U11" t="n">
-        <v>1672.742527425299</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="V11" t="n">
-        <v>1672.742527425299</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="W11" t="n">
-        <v>1297.416772264801</v>
+        <v>431.9677548330235</v>
       </c>
       <c r="X11" t="n">
-        <v>878.2743088441118</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="Y11" t="n">
-        <v>878.2743088441118</v>
+        <v>33.45485054850599</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>531.9672238352459</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C12" t="n">
-        <v>425.5107626718882</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D12" t="n">
-        <v>330.4204738184415</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E12" t="n">
-        <v>236.3000591453952</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F12" t="n">
-        <v>152.9162207615568</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G12" t="n">
-        <v>68.2497881259456</v>
+        <v>68.24978812594554</v>
       </c>
       <c r="H12" t="n">
         <v>33.45485054850599</v>
@@ -5123,22 +5123,22 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K12" t="n">
-        <v>605.2485493631991</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L12" t="n">
-        <v>758.1833518442032</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M12" t="n">
-        <v>936.6510528709197</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N12" t="n">
-        <v>1119.842262896595</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O12" t="n">
-        <v>1287.426430762205</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P12" t="n">
-        <v>1421.927499955579</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q12" t="n">
         <v>1511.8379027716</v>
@@ -5159,13 +5159,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W12" t="n">
-        <v>934.6243398969084</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X12" t="n">
-        <v>779.7569041357883</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y12" t="n">
-        <v>653.2711249150091</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>172.8170513419956</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="C13" t="n">
-        <v>33.45485054850599</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="D13" t="n">
-        <v>33.45485054850599</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="E13" t="n">
-        <v>33.45485054850599</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="F13" t="n">
-        <v>33.45485054850599</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G13" t="n">
         <v>33.45485054850599</v>
@@ -5199,22 +5199,22 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J13" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K13" t="n">
-        <v>505.1482476164479</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L13" t="n">
-        <v>592.940721149037</v>
+        <v>231.6025814132115</v>
       </c>
       <c r="M13" t="n">
-        <v>861.7096435212256</v>
+        <v>645.6063569509731</v>
       </c>
       <c r="N13" t="n">
-        <v>952.0735121144794</v>
+        <v>1059.610132488735</v>
       </c>
       <c r="O13" t="n">
-        <v>1035.539170576305</v>
+        <v>1378.12365616191</v>
       </c>
       <c r="P13" t="n">
         <v>1449.542946114066</v>
@@ -5229,22 +5229,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T13" t="n">
-        <v>1429.437390511417</v>
+        <v>1457.924486022174</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.037253290152</v>
+        <v>1179.524348800909</v>
       </c>
       <c r="V13" t="n">
-        <v>864.0817451605828</v>
+        <v>892.5688406713396</v>
       </c>
       <c r="W13" t="n">
-        <v>592.0553407468744</v>
+        <v>620.5424362576312</v>
       </c>
       <c r="X13" t="n">
-        <v>592.0553407468744</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="Y13" t="n">
-        <v>364.6356700609827</v>
+        <v>375.1506815910436</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>455.8645796963089</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="C14" t="n">
-        <v>455.8645796963089</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="D14" t="n">
-        <v>455.8645796963089</v>
+        <v>1553.703431423125</v>
       </c>
       <c r="E14" t="n">
-        <v>455.8645796963089</v>
+        <v>1131.293702275322</v>
       </c>
       <c r="F14" t="n">
-        <v>33.45485054850599</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G14" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H14" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I14" t="n">
-        <v>83.79828774524233</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J14" t="n">
-        <v>195.5292216073329</v>
+        <v>195.5292216073327</v>
       </c>
       <c r="K14" t="n">
-        <v>362.9849282099032</v>
+        <v>362.984928209903</v>
       </c>
       <c r="L14" t="n">
         <v>570.7285396968689</v>
       </c>
       <c r="M14" t="n">
-        <v>801.8833353847205</v>
+        <v>801.8833353847206</v>
       </c>
       <c r="N14" t="n">
         <v>1036.7784573317</v>
@@ -5299,7 +5299,7 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q14" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R14" t="n">
         <v>1672.742527425299</v>
@@ -5317,13 +5317,13 @@
         <v>1672.742527425299</v>
       </c>
       <c r="W14" t="n">
-        <v>1267.887072836333</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="X14" t="n">
-        <v>848.7446094156434</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="Y14" t="n">
-        <v>455.8645796963089</v>
+        <v>1672.742527425299</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>531.9672238352457</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C15" t="n">
-        <v>425.510762671888</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D15" t="n">
-        <v>330.4204738184412</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E15" t="n">
-        <v>236.3000591453949</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F15" t="n">
-        <v>152.9162207615565</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G15" t="n">
         <v>68.24978812594551</v>
@@ -5357,25 +5357,25 @@
         <v>83.76937108752902</v>
       </c>
       <c r="J15" t="n">
-        <v>474.8738748284774</v>
+        <v>167.4171577960264</v>
       </c>
       <c r="K15" t="n">
-        <v>588.6118936739097</v>
+        <v>281.1551766414587</v>
       </c>
       <c r="L15" t="n">
-        <v>741.5466961549138</v>
+        <v>434.0899791224628</v>
       </c>
       <c r="M15" t="n">
-        <v>920.0143971816303</v>
+        <v>612.5576801491793</v>
       </c>
       <c r="N15" t="n">
-        <v>1103.205607207306</v>
+        <v>795.7488901748548</v>
       </c>
       <c r="O15" t="n">
-        <v>1270.789775072916</v>
+        <v>963.3330580404647</v>
       </c>
       <c r="P15" t="n">
-        <v>1405.290844266289</v>
+        <v>1097.834127233838</v>
       </c>
       <c r="Q15" t="n">
         <v>1511.8379027716</v>
@@ -5399,10 +5399,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X15" t="n">
-        <v>779.7569041357881</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y15" t="n">
-        <v>653.2711249150088</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>958.6454098111619</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="C16" t="n">
-        <v>786.0836982943869</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D16" t="n">
-        <v>620.2057054959096</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E16" t="n">
-        <v>450.4477017466468</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F16" t="n">
-        <v>273.740647708403</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G16" t="n">
-        <v>238.5414622752818</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H16" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I16" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="J16" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K16" t="n">
-        <v>505.1482476164479</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L16" t="n">
-        <v>790.2903535690692</v>
+        <v>304.3051044129577</v>
       </c>
       <c r="M16" t="n">
-        <v>1204.294129106831</v>
+        <v>718.3088799507193</v>
       </c>
       <c r="N16" t="n">
-        <v>1294.657997700085</v>
+        <v>1132.312655488481</v>
       </c>
       <c r="O16" t="n">
-        <v>1378.12365616191</v>
+        <v>1546.316431026242</v>
       </c>
       <c r="P16" t="n">
-        <v>1449.542946114066</v>
+        <v>1617.735720978399</v>
       </c>
       <c r="Q16" t="n">
         <v>1667.182735391305</v>
@@ -5463,25 +5463,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S16" t="n">
-        <v>1524.001055161996</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T16" t="n">
-        <v>1524.001055161996</v>
+        <v>1535.466944384515</v>
       </c>
       <c r="U16" t="n">
-        <v>1245.600917940732</v>
+        <v>1257.06680716325</v>
       </c>
       <c r="V16" t="n">
-        <v>958.6454098111619</v>
+        <v>970.1112990336808</v>
       </c>
       <c r="W16" t="n">
-        <v>958.6454098111619</v>
+        <v>698.0848946199724</v>
       </c>
       <c r="X16" t="n">
-        <v>958.6454098111619</v>
+        <v>452.6931399533848</v>
       </c>
       <c r="Y16" t="n">
-        <v>958.6454098111619</v>
+        <v>225.2734692674931</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>848.7446094156434</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C17" t="n">
-        <v>848.7446094156434</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D17" t="n">
-        <v>848.7446094156434</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E17" t="n">
-        <v>848.7446094156434</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F17" t="n">
-        <v>433.509516053608</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>33.45485054850599</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>33.45485054850599</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>83.79828774524233</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>195.529221607333</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>362.9849282099032</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>570.7285396968689</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
-        <v>801.8833353847206</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1036.7784573317</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1258.583260144776</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>1447.888527710259</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
-        <v>1590.048899840627</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>1672.742527425299</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>1672.742527425299</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>1672.742527425299</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>1672.742527425299</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V17" t="n">
-        <v>1672.742527425299</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W17" t="n">
-        <v>1267.887072836333</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="X17" t="n">
-        <v>848.7446094156434</v>
+        <v>1133.246339586704</v>
       </c>
       <c r="Y17" t="n">
-        <v>848.7446094156434</v>
+        <v>1133.246339586704</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>531.9672238352458</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>425.5107626718881</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>330.4204738184413</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>236.300059145395</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>152.9162207615567</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>68.24978812594551</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>33.45485054850599</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>83.76937108752902</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
-        <v>474.8738748284774</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>605.2485493631991</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>758.1833518442032</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>936.6510528709197</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
-        <v>1119.842262896595</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1287.426430762205</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P18" t="n">
-        <v>1421.927499955578</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q18" t="n">
-        <v>1511.8379027716</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R18" t="n">
-        <v>1672.742527425299</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S18" t="n">
-        <v>1622.635830272358</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T18" t="n">
-        <v>1495.353879029496</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U18" t="n">
-        <v>1319.064612101715</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V18" t="n">
-        <v>1119.947094163714</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>934.6243398969082</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X18" t="n">
-        <v>779.7569041357882</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y18" t="n">
-        <v>653.271124915009</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>382.7236161035248</v>
+        <v>894.4683967363985</v>
       </c>
       <c r="C19" t="n">
-        <v>210.1619045867498</v>
+        <v>721.9066852196235</v>
       </c>
       <c r="D19" t="n">
-        <v>210.1619045867498</v>
+        <v>556.0286924211462</v>
       </c>
       <c r="E19" t="n">
-        <v>210.1619045867498</v>
+        <v>386.2706886718834</v>
       </c>
       <c r="F19" t="n">
-        <v>33.45485054850599</v>
+        <v>209.5636346336396</v>
       </c>
       <c r="G19" t="n">
-        <v>33.45485054850599</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H19" t="n">
-        <v>33.45485054850599</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>33.45485054850599</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>161.7834697148434</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>505.1482476164479</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L19" t="n">
-        <v>919.1520231542094</v>
+        <v>862.082053811994</v>
       </c>
       <c r="M19" t="n">
-        <v>1204.294129106831</v>
+        <v>992.6864461505235</v>
       </c>
       <c r="N19" t="n">
-        <v>1294.657997700085</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O19" t="n">
-        <v>1378.12365616191</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P19" t="n">
-        <v>1449.542946114066</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q19" t="n">
-        <v>1667.182735391305</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>1672.742527425299</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>1612.709305525826</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>1612.709305525826</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U19" t="n">
-        <v>1334.309168304561</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V19" t="n">
-        <v>1047.353660174991</v>
+        <v>1831.124845221573</v>
       </c>
       <c r="W19" t="n">
-        <v>1047.353660174991</v>
+        <v>1559.098440807865</v>
       </c>
       <c r="X19" t="n">
-        <v>801.9619055084038</v>
+        <v>1313.706686141277</v>
       </c>
       <c r="Y19" t="n">
-        <v>574.542234822512</v>
+        <v>1086.287015455386</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>716.4307943255671</v>
+        <v>885.0319878285603</v>
       </c>
       <c r="C20" t="n">
-        <v>716.4307943255671</v>
+        <v>885.0319878285603</v>
       </c>
       <c r="D20" t="n">
-        <v>716.4307943255671</v>
+        <v>885.0319878285603</v>
       </c>
       <c r="E20" t="n">
         <v>716.4307943255671</v>
@@ -5746,7 +5746,7 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001353</v>
@@ -5755,19 +5755,19 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M20" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
         <v>2043.069798152528</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T20" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U20" t="n">
-        <v>1849.01926465316</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V20" t="n">
-        <v>1486.402314586986</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W20" t="n">
-        <v>1081.54685999802</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X20" t="n">
-        <v>1081.54685999802</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="Y20" t="n">
-        <v>716.4307943255671</v>
+        <v>885.0319878285603</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
         <v>341.0245550495863</v>
@@ -5825,16 +5825,16 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J21" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L21" t="n">
         <v>551.5786779960906</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1053.292138170716</v>
+        <v>750.041858240633</v>
       </c>
       <c r="C22" t="n">
-        <v>880.7304266539412</v>
+        <v>577.480146723858</v>
       </c>
       <c r="D22" t="n">
-        <v>753.852136908379</v>
+        <v>411.6021539253807</v>
       </c>
       <c r="E22" t="n">
-        <v>584.0941331591162</v>
+        <v>241.8441501761179</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>65.13709613787412</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>65.13709613787412</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
@@ -5919,13 +5919,13 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M22" t="n">
-        <v>1690.512214359095</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N22" t="n">
-        <v>1887.361501150536</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O22" t="n">
-        <v>2005.127382498297</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P22" t="n">
         <v>2105.896438675981</v>
@@ -5934,28 +5934,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270316</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856608</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.711808856608</v>
+        <v>1169.280147645512</v>
       </c>
       <c r="Y22" t="n">
-        <v>1053.292138170716</v>
+        <v>941.8604769596202</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2182.403674944107</v>
+        <v>1440.733140952813</v>
       </c>
       <c r="C23" t="n">
-        <v>1744.26120212753</v>
+        <v>1002.590668136237</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.351417301975</v>
+        <v>1002.590668136237</v>
       </c>
       <c r="E23" t="n">
-        <v>874.5766724602698</v>
+        <v>1002.590668136237</v>
       </c>
       <c r="F23" t="n">
-        <v>446.7092428694776</v>
+        <v>574.7232385454445</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>175.2205472249216</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
         <v>118.4065018001353</v>
@@ -5992,13 +5992,13 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
         <v>1463.013992431967</v>
@@ -6007,7 +6007,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W23" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X23" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y23" t="n">
-        <v>2360.327577447737</v>
+        <v>1440.733140952813</v>
       </c>
     </row>
     <row r="24">
@@ -6047,25 +6047,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.291841223631</v>
+        <v>861.4735194517291</v>
       </c>
       <c r="C25" t="n">
-        <v>919.7301297068562</v>
+        <v>688.911807934954</v>
       </c>
       <c r="D25" t="n">
-        <v>753.852136908379</v>
+        <v>523.0338151364767</v>
       </c>
       <c r="E25" t="n">
-        <v>584.0941331591162</v>
+        <v>523.0338151364767</v>
       </c>
       <c r="F25" t="n">
         <v>407.3870791208724</v>
@@ -6144,7 +6144,7 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
         <v>192.6919004158277</v>
@@ -6153,19 +6153,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L25" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M25" t="n">
-        <v>1272.302332591134</v>
+        <v>1690.512214359095</v>
       </c>
       <c r="N25" t="n">
-        <v>1399.801244395024</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O25" t="n">
-        <v>1657.620488527957</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P25" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T25" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U25" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V25" t="n">
-        <v>1695.267182904121</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W25" t="n">
-        <v>1423.240778490413</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X25" t="n">
-        <v>1423.240778490413</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.110459942618</v>
+        <v>1053.292138170716</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1346.991198798029</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C26" t="n">
-        <v>908.8487259814518</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D26" t="n">
-        <v>908.8487259814518</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E26" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G26" t="n">
         <v>47.20655154895474</v>
@@ -6226,13 +6226,13 @@
         <v>118.4065018001355</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6256,22 +6256,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2128.750612284891</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2128.750612284891</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>1766.133662218718</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W26" t="n">
-        <v>1766.133662218718</v>
+        <v>1274.137829990514</v>
       </c>
       <c r="X26" t="n">
-        <v>1346.991198798029</v>
+        <v>854.9953665698242</v>
       </c>
       <c r="Y26" t="n">
-        <v>1346.991198798029</v>
+        <v>446.7092428694776</v>
       </c>
     </row>
     <row r="27">
@@ -6284,16 +6284,16 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E27" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G27" t="n">
         <v>79.1492015823585</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1029.196554659879</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="C28" t="n">
-        <v>856.6348431431041</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="D28" t="n">
-        <v>690.7568503446269</v>
+        <v>725.0155228957786</v>
       </c>
       <c r="E28" t="n">
-        <v>520.9988465953642</v>
+        <v>555.257519146516</v>
       </c>
       <c r="F28" t="n">
-        <v>344.2917925571204</v>
+        <v>378.5504651082722</v>
       </c>
       <c r="G28" t="n">
-        <v>179.5506121696388</v>
+        <v>213.8092847207906</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
         <v>47.20655154895474</v>
@@ -6390,19 +6390,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>481.9462364092383</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M28" t="n">
-        <v>1066.127311827553</v>
+        <v>970.0968922186607</v>
       </c>
       <c r="N28" t="n">
-        <v>1635.885026789087</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6423,13 +6423,13 @@
         <v>1408.311674774552</v>
       </c>
       <c r="W28" t="n">
-        <v>1408.311674774552</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X28" t="n">
-        <v>1408.311674774552</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y28" t="n">
-        <v>1180.89200408866</v>
+        <v>890.8935156942559</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>446.7092428694776</v>
+        <v>1078.11619088664</v>
       </c>
       <c r="C29" t="n">
-        <v>446.7092428694776</v>
+        <v>639.9737180700631</v>
       </c>
       <c r="D29" t="n">
-        <v>446.7092428694776</v>
+        <v>639.9737180700631</v>
       </c>
       <c r="E29" t="n">
-        <v>446.7092428694776</v>
+        <v>639.9737180700631</v>
       </c>
       <c r="F29" t="n">
-        <v>446.7092428694776</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895473</v>
@@ -6469,16 +6469,16 @@
         <v>512.3249274228016</v>
       </c>
       <c r="L29" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M29" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
         <v>2043.069798152528</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>1738.639935903077</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W29" t="n">
-        <v>1333.78448131411</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X29" t="n">
-        <v>914.642017893421</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y29" t="n">
-        <v>873.0088133543854</v>
+        <v>1078.11619088664</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>520.9988465953642</v>
+        <v>795.2066002154656</v>
       </c>
       <c r="C31" t="n">
-        <v>520.9988465953642</v>
+        <v>622.6448886986906</v>
       </c>
       <c r="D31" t="n">
-        <v>520.9988465953642</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E31" t="n">
-        <v>520.9988465953642</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F31" t="n">
-        <v>344.2917925571204</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G31" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
-        <v>116.6355901513729</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>488.1941452900667</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>1030.274828676326</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M31" t="n">
-        <v>1160.879221014855</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N31" t="n">
-        <v>1288.378132818745</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O31" t="n">
-        <v>1825.813263392288</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P31" t="n">
         <v>2274.089213540313</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2215.901038951971</v>
+        <v>2261.065780926804</v>
       </c>
       <c r="T31" t="n">
-        <v>1973.653814855378</v>
+        <v>2018.81855683021</v>
       </c>
       <c r="U31" t="n">
-        <v>1695.267182904121</v>
+        <v>2018.81855683021</v>
       </c>
       <c r="V31" t="n">
-        <v>1408.311674774551</v>
+        <v>1731.863048700641</v>
       </c>
       <c r="W31" t="n">
-        <v>1185.628890666831</v>
+        <v>1459.836644286932</v>
       </c>
       <c r="X31" t="n">
-        <v>940.237136000243</v>
+        <v>1214.444889620345</v>
       </c>
       <c r="Y31" t="n">
-        <v>712.8174653143512</v>
+        <v>987.0252189344528</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1321.127738795813</v>
+        <v>485.3490243655314</v>
       </c>
       <c r="C32" t="n">
-        <v>1321.127738795813</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D32" t="n">
-        <v>1178.570277437541</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E32" t="n">
-        <v>744.7955325958366</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F32" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G32" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H32" t="n">
         <v>47.20655154895473</v>
@@ -6706,16 +6706,16 @@
         <v>512.3249274228016</v>
       </c>
       <c r="L32" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M32" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
         <v>2043.069798152528</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2148.556325916849</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V32" t="n">
-        <v>2148.556325916849</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W32" t="n">
-        <v>2148.556325916849</v>
+        <v>1739.077181971475</v>
       </c>
       <c r="X32" t="n">
-        <v>1729.41386249616</v>
+        <v>1319.934718550786</v>
       </c>
       <c r="Y32" t="n">
-        <v>1321.127738795813</v>
+        <v>911.6485948504392</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.291841223631</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C34" t="n">
-        <v>919.7301297068562</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D34" t="n">
-        <v>753.852136908379</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="E34" t="n">
-        <v>584.0941331591162</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>266.8129992301227</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I34" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>831.5726843696448</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M34" t="n">
-        <v>962.1770767081742</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N34" t="n">
-        <v>1120.185357954413</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>2215.901038951971</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U34" t="n">
-        <v>2215.901038951971</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V34" t="n">
-        <v>1928.945530822401</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W34" t="n">
-        <v>1756.921885295098</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1745.473006065472</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C35" t="n">
-        <v>1586.115323992828</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D35" t="n">
-        <v>1150.205539167272</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E35" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F35" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
         <v>2043.069798152528</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V35" t="n">
-        <v>1745.473006065472</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="W35" t="n">
-        <v>1745.473006065472</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="X35" t="n">
-        <v>1745.473006065472</v>
+        <v>1281.294937054732</v>
       </c>
       <c r="Y35" t="n">
-        <v>1745.473006065472</v>
+        <v>873.0088133543854</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
         <v>341.0245550495863</v>
@@ -7007,7 +7007,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H36" t="n">
         <v>47.20655154895473</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.0817647851416</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C37" t="n">
-        <v>443.5200532683665</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D37" t="n">
-        <v>443.5200532683665</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="E37" t="n">
-        <v>273.7620495191038</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="F37" t="n">
-        <v>97.05499548085996</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895473</v>
@@ -7101,13 +7101,13 @@
         <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>481.9462364092379</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M37" t="n">
-        <v>1066.127311827553</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N37" t="n">
-        <v>1635.885026789087</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O37" t="n">
         <v>2173.32015736263</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.320054190021</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041287</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="38">
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>2209.200554108492</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>2209.200554108492</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W38" t="n">
-        <v>2209.200554108492</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X38" t="n">
-        <v>2209.200554108492</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y38" t="n">
-        <v>2209.200554108492</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>732.1113136517137</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C40" t="n">
-        <v>559.5496021349386</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D40" t="n">
-        <v>393.6716093364613</v>
+        <v>443.520053268367</v>
       </c>
       <c r="E40" t="n">
-        <v>223.9136055871985</v>
+        <v>273.7620495191042</v>
       </c>
       <c r="F40" t="n">
-        <v>47.20655154895474</v>
+        <v>97.05499548086041</v>
       </c>
       <c r="G40" t="n">
         <v>47.20655154895474</v>
@@ -7338,7 +7338,7 @@
         <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092383</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M40" t="n">
         <v>1066.127311827553</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W40" t="n">
-        <v>1396.74135772318</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X40" t="n">
-        <v>1151.349603056593</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.9299323707007</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1178.570277437541</v>
+        <v>294.5846426621868</v>
       </c>
       <c r="C41" t="n">
-        <v>1178.570277437541</v>
+        <v>294.5846426621868</v>
       </c>
       <c r="D41" t="n">
-        <v>1178.570277437541</v>
+        <v>294.5846426621868</v>
       </c>
       <c r="E41" t="n">
-        <v>744.7955325958366</v>
+        <v>294.5846426621868</v>
       </c>
       <c r="F41" t="n">
-        <v>316.9281030050443</v>
+        <v>294.5846426621868</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>294.5846426621868</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895473</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662534</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.861207662534</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W41" t="n">
-        <v>1915.005753073567</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X41" t="n">
-        <v>1495.863289652877</v>
+        <v>702.8707663625333</v>
       </c>
       <c r="Y41" t="n">
-        <v>1178.570277437541</v>
+        <v>294.5846426621868</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>698.5773814739204</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C43" t="n">
-        <v>526.0156699571453</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D43" t="n">
-        <v>526.0156699571453</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E43" t="n">
-        <v>356.2576662078826</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F43" t="n">
-        <v>179.5506121696388</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G43" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H43" t="n">
         <v>47.20655154895473</v>
@@ -7569,19 +7569,19 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L43" t="n">
-        <v>1106.33113894078</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M43" t="n">
         <v>1412.355695376305</v>
       </c>
       <c r="N43" t="n">
-        <v>1539.854607180194</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O43" t="n">
         <v>1657.620488527956</v>
@@ -7602,19 +7602,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V43" t="n">
-        <v>1635.233829959095</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.207425545387</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X43" t="n">
-        <v>1117.815670878799</v>
+        <v>1169.280147645512</v>
       </c>
       <c r="Y43" t="n">
-        <v>890.3960001929074</v>
+        <v>941.8604769596202</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1782.900983623584</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="C44" t="n">
-        <v>1344.758510807007</v>
+        <v>643.4043871814431</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>643.4043871814431</v>
       </c>
       <c r="E44" t="n">
-        <v>475.073981139747</v>
+        <v>643.4043871814431</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895473</v>
+        <v>215.5369575906508</v>
       </c>
       <c r="G44" t="n">
         <v>47.20655154895473</v>
@@ -7648,22 +7648,22 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L44" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
         <v>2043.069798152528</v>
@@ -7681,19 +7681,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2108.089956131646</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>2108.089956131646</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W44" t="n">
-        <v>2108.089956131646</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X44" t="n">
-        <v>2108.089956131646</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y44" t="n">
-        <v>2108.089956131646</v>
+        <v>1081.54685999802</v>
       </c>
     </row>
     <row r="45">
@@ -7706,19 +7706,19 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
         <v>47.20655154895473</v>
@@ -7733,7 +7733,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
         <v>803.387703298788</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>989.073385369672</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C46" t="n">
-        <v>816.5116738528969</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D46" t="n">
-        <v>690.7568503446269</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="E46" t="n">
-        <v>520.9988465953642</v>
+        <v>273.7620495191038</v>
       </c>
       <c r="F46" t="n">
-        <v>344.2917925571204</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="G46" t="n">
-        <v>179.5506121696388</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="H46" t="n">
         <v>47.20655154895473</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W46" t="n">
-        <v>1408.311674774551</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X46" t="n">
-        <v>1408.311674774551</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>1180.892004088659</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
   </sheetData>
@@ -8771,25 +8771,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>16.8047027164539</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>177.9839075203757</v>
+        <v>324.6857794047928</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>326.9089969136442</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>237.4220860720707</v>
       </c>
       <c r="P13" t="n">
-        <v>346.0449349349548</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9005,7 +9005,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>17.27435144824375</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>16.80470271645416</v>
+        <v>327.3670431532728</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>199.3430630505377</v>
+        <v>73.4368919189356</v>
       </c>
       <c r="M16" t="n">
-        <v>324.6857794047927</v>
+        <v>324.6857794047928</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>326.9089969136442</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>333.8768859352888</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>16.8047027164539</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>329.5063656617904</v>
+        <v>263.1722038422874</v>
       </c>
       <c r="M19" t="n">
-        <v>194.52247679354</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9567,16 +9567,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371568</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N22" t="n">
-        <v>70.05088382580919</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9801,19 +9801,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>458.1582657371569</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>70.05088382580971</v>
       </c>
       <c r="O25" t="n">
-        <v>141.4680432173446</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -10038,22 +10038,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>156.7304232042871</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>458.1582657371571</v>
+        <v>95.45404108603668</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>10.62967161639906</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10281,13 +10281,13 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>192.4544649334021</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N34" t="n">
-        <v>30.81754489126183</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10749,10 +10749,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>156.7304232042868</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371569</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>156.7304232042871</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M40" t="n">
         <v>458.1582657371571</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11226,7 +11226,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>177.1920849464593</v>
+        <v>264.6463123855406</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -23266,10 +23266,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>11.25136553696291</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>5.403123438559476</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>396.054118850051</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T11" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>29.23440243418389</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>20.42326354481008</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>32.86751561605263</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -23427,10 +23427,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>133.1999654356588</v>
@@ -23469,7 +23469,7 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>28.20222455564922</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23500,19 +23500,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>313.7019819351473</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>11.25136553696291</v>
       </c>
       <c r="F14" t="n">
         <v>5.403123438559476</v>
       </c>
       <c r="G14" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T14" t="n">
         <v>212.0456433386444</v>
@@ -23557,13 +23557,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.25203304120203</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>128.4916956554609</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T16" t="n">
-        <v>240.8720855447433</v>
+        <v>104.969258334367</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>9.389184971533325</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23743,13 +23743,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>12.50601286646935</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.0456433386444</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5237009191198</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.3388892342509</v>
+        <v>133.380876344246</v>
       </c>
       <c r="H19" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>69.83578017384922</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>87.821167860191</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>262.5218158253246</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>42.73835744761504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>38.60970602238591</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>113.2693808714471</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>245.891911301465</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>140.2904802223214</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -24274,7 +24274,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>60.44971484241304</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>87.40645861671621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,19 +24445,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>20.45404959171255</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>190.6650602925685</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>39.72193759730419</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>28.54824787247419</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24691,13 +24691,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>103.7735963805157</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>362.9863899696979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>44.71309455508428</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>48.85018410292818</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>290.418800232611</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>82.31069917263017</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>76.70400539372771</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>99.002731297541</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>275.9969428364926</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>316.1599444215757</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>111.3145178010427</v>
       </c>
       <c r="G37" t="n">
-        <v>113.7438090910206</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>356.5794765607779</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>106.8642314578485</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>113.7438090910202</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>257.8515264887133</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25636,16 +25636,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>22.12002573942897</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>90.08318037016033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>145.3425294405765</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>224.6529336326987</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.0994919970772</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>228.8605624260384</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25921,13 +25921,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>39.72193759730516</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>81.67066052189108</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>329175.358745823</v>
+        <v>329175.3587458231</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>329175.358745823</v>
+        <v>418778.137745028</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>418778.1377450281</v>
+        <v>418778.137745028</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>418778.137745028</v>
+        <v>418778.1377450281</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>418778.137745028</v>
+        <v>418778.1377450281</v>
       </c>
     </row>
     <row r="13">
@@ -26328,7 +26328,7 @@
         <v>109551.128031233</v>
       </c>
       <c r="G2" t="n">
-        <v>109551.128031233</v>
+        <v>141567.8141707356</v>
       </c>
       <c r="H2" t="n">
         <v>141567.8141707356</v>
@@ -26337,7 +26337,7 @@
         <v>141567.8141707356</v>
       </c>
       <c r="J2" t="n">
-        <v>141567.8141707357</v>
+        <v>141567.8141707356</v>
       </c>
       <c r="K2" t="n">
         <v>141567.8141707356</v>
@@ -26346,16 +26346,16 @@
         <v>141567.8141707356</v>
       </c>
       <c r="M2" t="n">
-        <v>141567.8141707355</v>
+        <v>141567.8141707356</v>
       </c>
       <c r="N2" t="n">
-        <v>141567.8141707357</v>
+        <v>141567.8141707356</v>
       </c>
       <c r="O2" t="n">
         <v>141567.8141707356</v>
       </c>
       <c r="P2" t="n">
-        <v>141567.8141707356</v>
+        <v>141567.8141707357</v>
       </c>
     </row>
     <row r="3">
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>390603.752983759</v>
+        <v>390603.7529837591</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>152798.4169065694</v>
       </c>
       <c r="H3" t="n">
-        <v>150462.1266959149</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>41367.00746823735</v>
       </c>
       <c r="P3" t="n">
-        <v>40631.80715350089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26429,10 +26429,10 @@
         <v>13056.95251542856</v>
       </c>
       <c r="F4" t="n">
-        <v>13056.95251542856</v>
+        <v>13056.95251542855</v>
       </c>
       <c r="G4" t="n">
-        <v>13056.95251542856</v>
+        <v>10272.22173839659</v>
       </c>
       <c r="H4" t="n">
         <v>10272.22173839658</v>
@@ -26447,16 +26447,16 @@
         <v>10272.22173839658</v>
       </c>
       <c r="L4" t="n">
-        <v>10272.22173839659</v>
+        <v>10272.22173839658</v>
       </c>
       <c r="M4" t="n">
-        <v>10272.22173839659</v>
+        <v>10272.22173839658</v>
       </c>
       <c r="N4" t="n">
         <v>10272.22173839659</v>
       </c>
       <c r="O4" t="n">
-        <v>10272.22173839658</v>
+        <v>10272.22173839659</v>
       </c>
       <c r="P4" t="n">
         <v>10272.22173839658</v>
@@ -26484,13 +26484,13 @@
         <v>32636.50261996421</v>
       </c>
       <c r="G5" t="n">
-        <v>32636.50261996421</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-326746.0800879188</v>
+        <v>-327477.8310096935</v>
       </c>
       <c r="F6" t="n">
-        <v>63857.67289584027</v>
+        <v>63125.92197406555</v>
       </c>
       <c r="G6" t="n">
-        <v>63857.67289584028</v>
+        <v>-68107.78612709015</v>
       </c>
       <c r="H6" t="n">
-        <v>-65217.61547321369</v>
+        <v>84690.6307794793</v>
       </c>
       <c r="I6" t="n">
-        <v>85244.51122270116</v>
+        <v>84690.63077947924</v>
       </c>
       <c r="J6" t="n">
-        <v>85244.51122270124</v>
+        <v>84690.63077947925</v>
       </c>
       <c r="K6" t="n">
-        <v>85244.5112227012</v>
+        <v>84690.63077947924</v>
       </c>
       <c r="L6" t="n">
-        <v>85244.5112227012</v>
+        <v>84690.63077947924</v>
       </c>
       <c r="M6" t="n">
-        <v>-18969.02097842243</v>
+        <v>-19522.90142164435</v>
       </c>
       <c r="N6" t="n">
-        <v>85244.51122270127</v>
+        <v>84690.63077947925</v>
       </c>
       <c r="O6" t="n">
-        <v>85244.51122270123</v>
+        <v>43323.62331124188</v>
       </c>
       <c r="P6" t="n">
-        <v>44612.70406920035</v>
+        <v>84690.63077947932</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="F3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="G3" t="n">
-        <v>330.7713854632871</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932212</v>
@@ -26779,7 +26779,7 @@
         <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26804,13 +26804,13 @@
         <v>418.1856318563248</v>
       </c>
       <c r="G4" t="n">
-        <v>418.1856318563248</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="I4" t="n">
         <v>590.0818943619341</v>
-      </c>
-      <c r="I4" t="n">
-        <v>590.0818943619342</v>
       </c>
       <c r="J4" t="n">
         <v>590.0818943619342</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>135.9305426299339</v>
       </c>
       <c r="H3" t="n">
-        <v>135.9305426299341</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27026,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>171.8962625056093</v>
       </c>
       <c r="H4" t="n">
-        <v>171.8962625056093</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27050,10 +27050,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>171.8962625056092</v>
       </c>
       <c r="P4" t="n">
-        <v>171.8962625056093</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>171.8962625056093</v>
       </c>
       <c r="P4" t="n">
-        <v>171.8962625056093</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31758,7 +31758,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I11" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J11" t="n">
         <v>112.8595291536268</v>
@@ -31767,13 +31767,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L11" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M11" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N11" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O11" t="n">
         <v>224.0452553667434</v>
@@ -31785,13 +31785,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R11" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S11" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T11" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U11" t="n">
         <v>0.1063787370334189</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H12" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I12" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J12" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K12" t="n">
         <v>114.8868877226589</v>
@@ -31861,10 +31861,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R12" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S12" t="n">
         <v>13.21525299468887</v>
@@ -31873,7 +31873,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H13" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I13" t="n">
         <v>17.9375695592222</v>
@@ -31922,25 +31922,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K13" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L13" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M13" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N13" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O13" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P13" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R13" t="n">
         <v>26.81959463117078</v>
@@ -31952,7 +31952,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I14" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J14" t="n">
         <v>112.8595291536268</v>
@@ -32004,13 +32004,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L14" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M14" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N14" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O14" t="n">
         <v>224.0452553667434</v>
@@ -32022,13 +32022,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R14" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S14" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T14" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U14" t="n">
         <v>0.1063787370334189</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H15" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I15" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J15" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K15" t="n">
         <v>114.8868877226589</v>
@@ -32098,10 +32098,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R15" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S15" t="n">
         <v>13.21525299468887</v>
@@ -32110,7 +32110,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H16" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I16" t="n">
         <v>17.9375695592222</v>
@@ -32159,25 +32159,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K16" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L16" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M16" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N16" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O16" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P16" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R16" t="n">
         <v>26.81959463117078</v>
@@ -32189,7 +32189,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.329734212917736</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
-        <v>13.61814050804377</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>51.26457824351107</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
-        <v>112.8595291536268</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>169.1471783864346</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>209.8420318050158</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>233.4896926139916</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>237.2677999464441</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>224.0452553667434</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>191.2174419853368</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>143.5963354852203</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>83.52891675219382</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>30.30131837686294</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>5.820911517047393</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1063787370334189</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7114705272229195</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>6.871307460284513</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>24.49580543289438</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>67.21836239872329</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
-        <v>114.8868877226589</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>154.4795984656607</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>180.2704050774915</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>185.041626288561</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>169.27693723799</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>135.8596658518924</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.81858870305197</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>44.17358238319146</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
-        <v>13.21525299468887</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>2.867725502271328</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.596472990179698</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>5.30318713087041</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
-        <v>17.9375695592222</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>42.17064040570465</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>69.29931649542308</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>88.67926619453439</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>93.49985245153211</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>91.27663494268057</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
-        <v>84.30874592103589</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>72.14069692136999</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.94647920495635</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>26.81959463117078</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>10.39489747431346</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>2.548566412585982</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,25 +32563,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -34234,7 +34234,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34398,7 +34398,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,13 +34441,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34459,7 +34459,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
@@ -34471,13 +34471,13 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356906</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
@@ -34529,7 +34529,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34553,10 +34553,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
         <v>0.04590510768130049</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J11" t="n">
         <v>112.8595291536268</v>
@@ -35415,10 +35415,10 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L11" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M11" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N11" t="n">
         <v>237.2677999464443</v>
@@ -35491,7 +35491,7 @@
         <v>395.0550542837863</v>
       </c>
       <c r="K12" t="n">
-        <v>131.6915904391128</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L12" t="n">
         <v>154.4795984656607</v>
@@ -35509,7 +35509,7 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.818588703052</v>
+        <v>107.6232914195059</v>
       </c>
       <c r="R12" t="n">
         <v>162.5299238926254</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K13" t="n">
-        <v>346.8331089915197</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L13" t="n">
         <v>88.67926619453442</v>
       </c>
       <c r="M13" t="n">
-        <v>271.4837599719078</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="N13" t="n">
-        <v>91.27663494268052</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="O13" t="n">
-        <v>84.30874592103589</v>
+        <v>321.7308319931067</v>
       </c>
       <c r="P13" t="n">
-        <v>418.1856318563248</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q13" t="n">
         <v>219.8381709871101</v>
       </c>
       <c r="R13" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,22 +35643,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J14" t="n">
-        <v>112.8595291536269</v>
+        <v>112.8595291536272</v>
       </c>
       <c r="K14" t="n">
         <v>169.1471783864346</v>
       </c>
       <c r="L14" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050161</v>
       </c>
       <c r="M14" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N14" t="n">
-        <v>237.2677999464443</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O14" t="n">
         <v>224.0452553667433</v>
@@ -35667,10 +35667,10 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q14" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R14" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>50.82274801921519</v>
       </c>
       <c r="J15" t="n">
-        <v>395.0550542837863</v>
+        <v>84.49271384696704</v>
       </c>
       <c r="K15" t="n">
         <v>114.8868877226589</v>
@@ -35734,22 +35734,22 @@
         <v>154.4795984656607</v>
       </c>
       <c r="M15" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N15" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O15" t="n">
-        <v>169.2769372379898</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P15" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.6232914195061</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="R15" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K16" t="n">
-        <v>346.8331089915197</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L16" t="n">
-        <v>288.0223292450721</v>
+        <v>162.11615811347</v>
       </c>
       <c r="M16" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="N16" t="n">
-        <v>91.27663494268063</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="O16" t="n">
-        <v>84.30874592103578</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P16" t="n">
         <v>72.14069692136991</v>
       </c>
       <c r="Q16" t="n">
-        <v>219.8381709871103</v>
+        <v>49.9464792049564</v>
       </c>
       <c r="R16" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>50.85195676437968</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>112.8595291536269</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>169.1471783864346</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>209.8420318050158</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>233.4896926139917</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>237.2677999464441</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>224.0452553667433</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>191.2174419853368</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
-        <v>143.5963354852202</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>83.52891675219394</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>50.82274801921519</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>395.0550542837863</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>131.6915904391128</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>154.4795984656607</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>180.2704050774914</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>185.041626288561</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>169.2769372379898</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>135.8596658518925</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.818588703052</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>162.5299238926254</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>129.6248678447853</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>346.8331089915197</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>418.1856318563248</v>
+        <v>388.294225678952</v>
       </c>
       <c r="M19" t="n">
-        <v>288.0223292450721</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>91.27663494268063</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>84.30874592103578</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>72.14069692136991</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>219.8381709871103</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>5.615951549488944</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.076641276667</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36138,7 +36138,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -36287,19 +36287,19 @@
         <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>590.081894361934</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N22" t="n">
-        <v>198.8376634256977</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36360,13 +36360,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36375,7 +36375,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>198.8376634256981</v>
       </c>
       <c r="O25" t="n">
-        <v>260.4234789221546</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
         <v>240.36368292423</v>
@@ -36594,7 +36594,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
@@ -36603,7 +36603,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36758,22 +36758,22 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>281.8524450409517</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619342</v>
+        <v>227.3776697108138</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36837,19 +36837,19 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>70.13034202264464</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>547.5562458447062</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247774</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485103</v>
+        <v>294.2413903654056</v>
       </c>
       <c r="Q31" t="n">
         <v>70.4719911420766</v>
@@ -37074,19 +37074,19 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N34" t="n">
-        <v>159.6043244911502</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37323,7 +37323,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37469,16 +37469,16 @@
         <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>281.8524450409514</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M37" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
@@ -37706,16 +37706,16 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>281.8524450409517</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M40" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
         <v>101.7869254320035</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M43" t="n">
-        <v>309.1157135712365</v>
+        <v>396.5699410103177</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998884</v>
@@ -37958,7 +37958,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
